--- a/example-test-forms/LWR-B ENT01. Fournitures intrants.xlsx
+++ b/example-test-forms/LWR-B ENT01. Fournitures intrants.xlsx
@@ -205,19 +205,19 @@
     <t>Lieu</t>
   </si>
   <si>
-    <t>tw.renseignements_sur_la_runion.module.value="Fournitures intrants";</t>
+    <t>tw.renseignements_sur_la_runion.module.value=”Fournitures intrants”;</t>
   </si>
   <si>
     <t>var today = new Date();
 if (tw.renseignements_sur_la_runion.heure_de_fin_de_runion.value.getTime() &amp;gt; today.getTime()) {
- throw " Revoir la date et l’heure : La formation se deroule le meme jour et L’heure de fin doit etre apres celle du debut.";
+ throw ” Revoir la date et l’heure : La formation se deroule le meme jour et L’heure de fin doit etre apres celle du debut.”;
 }
 if (tw.renseignements_sur_la_runion.heure_de_fin_de_runion.value.getTime() &amp;lt;= tw.renseignements_sur_la_runion.heure_de_dbut_de_la_runion.value.getTime()) {
-    throw " Revoir la date et l’heure : La formation se deroule le meme jour et L’heure de fin doit etre apres celle du debut.";
+    throw ” Revoir la date et l’heure : La formation se deroule le meme jour et L’heure de fin doit etre apres celle du debut.”;
 }</t>
   </si>
   <si>
-    <t>tw.renseignements_sur_la_runion.type.value="Formation";</t>
+    <t>tw.renseignements_sur_la_runion.type.value=”Formation”;</t>
   </si>
   <si>
     <t>Calculation</t>
